--- a/biology/Botanique/Phytelephas/Phytelephas.xlsx
+++ b/biology/Botanique/Phytelephas/Phytelephas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytelephas est un genre de la famille des Arecaceae qui regroupe des espèces de palmiers originaires d'Amérique du Sud et d'Amérique centrale.
 Les espèces de ce genre s'appellent palmier à ivoire car lorsque leur graine se durcit, elle devient ce qu'on appelle de l'ivoire végétal, aussi appelé tagua ou corozo.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme phytelephas dérive du grec ancien  φυτόν, phutón phyto- « végétal » et  ἐλέφας, eléphas « éléphant, ivoire ».
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces six espèces de palmiers à ivoire sont distribuées du centre du Panama au sud-ouest de l'Équateur, dans le bassin du Rio Magdalena  en Colombie et dans les régions amazoniennes occidentales de Colombie et Bolivie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces six espèces de palmiers à ivoire sont distribuées du centre du Panama au sud-ouest de l'Équateur, dans le bassin du Rio Magdalena  en Colombie et dans les régions amazoniennes occidentales de Colombie et Bolivie.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Phytelephas aequatorialis Spruce - Palmier à ivoire de l'Équateur
-Phytelephas macrocarpa Ruiz et Pav - Palmier à ivoire à gros fruits; il produit l'ivoire végétal le plus apprécié[2]
+Phytelephas macrocarpa Ruiz et Pav - Palmier à ivoire à gros fruits; il produit l'ivoire végétal le plus apprécié
 Phytelephas schottii H. Wendl - considéré précédemment comme une sous-espèce de Phytelephas macrocarpa
 Phytelephas seemannii O.F.Cook - Palmier à ivoire de Colombie
 Phytelephas tenuicaulis (Bardfod) A.Hendl - considéré précédemment comme une sous-espèce de Phytelephas macrocarpa
